--- a/Scope_evtA/Scope_1/pins.xlsx
+++ b/Scope_evtA/Scope_1/pins.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\it_works\Vit\Scope_evtA\Scope_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\It's_work\Scope\Scope_evtA\Scope_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94429F70-E0D7-44A1-B16B-BC7A12ECD3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7129C7B0-8773-4235-9364-E4849D6A92BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="64">
   <si>
     <t>#</t>
   </si>
@@ -132,15 +132,6 @@
     <t>Trigger</t>
   </si>
   <si>
-    <t>EXTI15</t>
-  </si>
-  <si>
-    <t>TIM17_1</t>
-  </si>
-  <si>
-    <t>TIM2_2</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -211,6 +202,21 @@
   </si>
   <si>
     <t>Twos Complement</t>
+  </si>
+  <si>
+    <t>TIM2_1</t>
+  </si>
+  <si>
+    <t>Trigger_Out</t>
+  </si>
+  <si>
+    <t>DAC1_1</t>
+  </si>
+  <si>
+    <t>Comp2_Inp</t>
+  </si>
+  <si>
+    <t>TIM1_2</t>
   </si>
 </sst>
 </file>
@@ -254,7 +260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -277,11 +283,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -290,10 +307,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -578,12 +601,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" customWidth="1"/>
     <col min="6" max="6" width="20.88671875" customWidth="1"/>
   </cols>
@@ -624,14 +648,14 @@
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1">
         <v>13</v>
@@ -642,14 +666,14 @@
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1">
         <v>14</v>
@@ -660,14 +684,14 @@
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1">
         <v>15</v>
@@ -678,61 +702,61 @@
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -744,13 +768,15 @@
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -762,14 +788,14 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>25</v>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -782,14 +808,14 @@
       <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>26</v>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -802,15 +828,13 @@
       <c r="C14" s="1">
         <v>3</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="D14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -822,15 +846,13 @@
       <c r="C15" s="1">
         <v>4</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="E15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -842,14 +864,14 @@
       <c r="C16" s="1">
         <v>5</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>60</v>
+      <c r="D16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -862,13 +884,13 @@
       <c r="C17" s="1">
         <v>6</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -882,14 +904,14 @@
       <c r="C18" s="1">
         <v>7</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>24</v>
+      <c r="D18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -897,18 +919,18 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -920,14 +942,14 @@
       <c r="C20" s="1">
         <v>0</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="D20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -940,14 +962,14 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>59</v>
+      <c r="D21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -964,10 +986,10 @@
         <v>7</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -986,7 +1008,7 @@
       <c r="E23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -1004,7 +1026,7 @@
       <c r="E24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="5"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -1020,10 +1042,10 @@
         <v>7</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>59</v>
+        <v>45</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1042,7 +1064,7 @@
       <c r="E26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="5"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
@@ -1058,10 +1080,10 @@
         <v>7</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>59</v>
+        <v>42</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1078,10 +1100,10 @@
         <v>7</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>59</v>
+        <v>43</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1098,10 +1120,10 @@
         <v>7</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1120,7 +1142,7 @@
       <c r="E30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="5"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
@@ -1138,14 +1160,14 @@
       <c r="E31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="5"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C32" s="1">
         <v>6</v>
@@ -1156,7 +1178,7 @@
       <c r="E32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="5"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
@@ -1174,7 +1196,7 @@
       <c r="E33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="5"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
@@ -1187,12 +1209,14 @@
         <v>9</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
@@ -1210,7 +1234,7 @@
       <c r="E35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1230,7 +1254,7 @@
       <c r="E36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="5"/>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
@@ -1248,7 +1272,7 @@
       <c r="E37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="5"/>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
@@ -1266,7 +1290,7 @@
       <c r="E38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="5"/>
+      <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
@@ -1284,7 +1308,7 @@
       <c r="E39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="5"/>
+      <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
@@ -1302,7 +1326,7 @@
       <c r="E40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F40" s="5"/>
+      <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
@@ -1315,19 +1339,19 @@
         <v>15</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C42" s="1">
         <v>10</v>
@@ -1338,14 +1362,14 @@
       <c r="E42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="5"/>
+      <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1">
         <v>11</v>
@@ -1356,7 +1380,7 @@
       <c r="E43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="5"/>
+      <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
@@ -1372,10 +1396,10 @@
         <v>7</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1392,10 +1416,10 @@
         <v>7</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1412,10 +1436,10 @@
         <v>7</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>59</v>
+        <v>48</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1432,10 +1456,10 @@
         <v>7</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1452,10 +1476,10 @@
         <v>7</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1472,10 +1496,10 @@
         <v>7</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>59</v>
+        <v>51</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1492,10 +1516,10 @@
         <v>7</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -1527,10 +1551,10 @@
         <v>10</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F52" s="3"/>
     </row>
